--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -1017,25 +1017,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6566523605150214</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
         <v>153</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1147,25 +1147,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5335365853658537</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L22">
         <v>175</v>
       </c>
       <c r="M22">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="10:17">
